--- a/data/products_report.xlsx
+++ b/data/products_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>e56ab542-7ac1-4d5d-8e73-82b47c02e36e</t>
+    <t>80e2d59c-96d4-449e-b326-51f9ce876cac</t>
   </si>
   <si>
     <t>Dropdown A</t>
@@ -40,28 +40,19 @@
     <t>A high-qauality dropdown</t>
   </si>
   <si>
-    <t>8340debd-0604-44fb-8b27-47439fbb2a6f</t>
+    <t>f2e0af68-d87b-4ad2-8ca9-ea027f0f0498</t>
   </si>
   <si>
     <t>Dropdown B</t>
   </si>
   <si>
-    <t>bcf35084-4991-43fa-8999-7181f4112b76</t>
+    <t>a96a2d42-4301-4541-9b3a-442cbe5dfc25</t>
   </si>
   <si>
     <t>Widget D</t>
   </si>
   <si>
     <t>A good-qauality widget</t>
-  </si>
-  <si>
-    <t>3e7f2f08-2fb0-4030-bb52-075404293ccf</t>
-  </si>
-  <si>
-    <t>Widget E</t>
-  </si>
-  <si>
-    <t>A heavily used widget</t>
   </si>
 </sst>
 </file>
@@ -416,7 +407,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -439,23 +430,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/products_report.xlsx
+++ b/data/products_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -31,28 +31,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>80e2d59c-96d4-449e-b326-51f9ce876cac</t>
-  </si>
-  <si>
-    <t>Dropdown A</t>
-  </si>
-  <si>
-    <t>A high-qauality dropdown</t>
-  </si>
-  <si>
-    <t>f2e0af68-d87b-4ad2-8ca9-ea027f0f0498</t>
-  </si>
-  <si>
-    <t>Dropdown B</t>
-  </si>
-  <si>
-    <t>a96a2d42-4301-4541-9b3a-442cbe5dfc25</t>
-  </si>
-  <si>
-    <t>Widget D</t>
-  </si>
-  <si>
-    <t>A good-qauality widget</t>
+    <t>82457957-3d05-4671-99dc-975f83a8a276</t>
+  </si>
+  <si>
+    <t>Widget E</t>
+  </si>
+  <si>
+    <t>A heavily used widget</t>
+  </si>
+  <si>
+    <t>4d3bfcc6-4ba2-40be-9819-27ab3369c59f</t>
+  </si>
+  <si>
+    <t>Widget A</t>
+  </si>
+  <si>
+    <t>A Premium Widget</t>
+  </si>
+  <si>
+    <t>8abd302b-3202-41d5-9cdf-d308f77e7c95</t>
+  </si>
+  <si>
+    <t>Dropdown D</t>
+  </si>
+  <si>
+    <t>A premium dropdown</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -404,30 +407,30 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
